--- a/data/pca/factorExposure/factorExposure_2017-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02383945695285324</v>
+        <v>-0.009150172071424588</v>
       </c>
       <c r="C2">
-        <v>-0.002614926199131578</v>
+        <v>0.04388007551213782</v>
       </c>
       <c r="D2">
-        <v>-0.03248314659371156</v>
+        <v>-0.0300373601128841</v>
       </c>
       <c r="E2">
-        <v>0.01054908866217102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03284669423908343</v>
+      </c>
+      <c r="F2">
+        <v>-0.01125532622101899</v>
+      </c>
+      <c r="G2">
+        <v>0.08306570408261296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01842461687259178</v>
+        <v>-0.04356361605644777</v>
       </c>
       <c r="C3">
-        <v>0.05107173132918433</v>
+        <v>0.09457476745010579</v>
       </c>
       <c r="D3">
-        <v>-0.05239982421598595</v>
+        <v>-0.01749958192943825</v>
       </c>
       <c r="E3">
-        <v>0.01791803376230847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1012893653459821</v>
+      </c>
+      <c r="F3">
+        <v>-0.01240118881431437</v>
+      </c>
+      <c r="G3">
+        <v>0.1702323965707808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02495918454718295</v>
+        <v>-0.05584273526424838</v>
       </c>
       <c r="C4">
-        <v>0.01533906204358288</v>
+        <v>0.06785007358241003</v>
       </c>
       <c r="D4">
-        <v>-0.08120874061102464</v>
+        <v>-0.02463514448841801</v>
       </c>
       <c r="E4">
-        <v>-0.01683432311955265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0257262021695395</v>
+      </c>
+      <c r="F4">
+        <v>-0.0131538431660166</v>
+      </c>
+      <c r="G4">
+        <v>0.09181049868214881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01464642589539253</v>
+        <v>-0.03742501288812531</v>
       </c>
       <c r="C6">
-        <v>0.001067989698460058</v>
+        <v>0.05303503433203135</v>
       </c>
       <c r="D6">
-        <v>-0.08265001469792867</v>
+        <v>-0.01659412526739244</v>
       </c>
       <c r="E6">
-        <v>-0.01021581917063774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02487662640107703</v>
+      </c>
+      <c r="F6">
+        <v>-0.01140880326786066</v>
+      </c>
+      <c r="G6">
+        <v>0.06324355327266167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01145229172051349</v>
+        <v>-0.01973262169013354</v>
       </c>
       <c r="C7">
-        <v>0.007272330018126093</v>
+        <v>0.04125165365332607</v>
       </c>
       <c r="D7">
-        <v>-0.041401131114841</v>
+        <v>-0.01316613210350097</v>
       </c>
       <c r="E7">
-        <v>-0.05843046856666845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005730183322726073</v>
+      </c>
+      <c r="F7">
+        <v>0.002386242700397707</v>
+      </c>
+      <c r="G7">
+        <v>0.1221553114017237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005708316541962886</v>
+        <v>-0.00236782515263184</v>
       </c>
       <c r="C8">
-        <v>-0.0004641286094098493</v>
+        <v>0.02421781148100328</v>
       </c>
       <c r="D8">
-        <v>-0.005509408024559243</v>
+        <v>-0.004035689002929976</v>
       </c>
       <c r="E8">
-        <v>-0.008904286927959852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02102046757556525</v>
+      </c>
+      <c r="F8">
+        <v>-0.00796403359381056</v>
+      </c>
+      <c r="G8">
+        <v>0.06073364596714654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01705512594333891</v>
+        <v>-0.03280870479288447</v>
       </c>
       <c r="C9">
-        <v>0.01521293393074979</v>
+        <v>0.04943624576341091</v>
       </c>
       <c r="D9">
-        <v>-0.06064314804657468</v>
+        <v>-0.01680818000023069</v>
       </c>
       <c r="E9">
-        <v>-0.007503546532807387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01606387027775429</v>
+      </c>
+      <c r="F9">
+        <v>-0.01115345894269713</v>
+      </c>
+      <c r="G9">
+        <v>0.0881607524895483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02725868220829243</v>
+        <v>-0.09869052643543763</v>
       </c>
       <c r="C10">
-        <v>0.1677278979762637</v>
+        <v>-0.1810822993771114</v>
       </c>
       <c r="D10">
-        <v>0.1005296532046806</v>
+        <v>0.0146710914372607</v>
       </c>
       <c r="E10">
-        <v>0.01264458120670042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01913501996431274</v>
+      </c>
+      <c r="F10">
+        <v>0.02073366364719346</v>
+      </c>
+      <c r="G10">
+        <v>0.05898516656094389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001044621562030866</v>
+        <v>-0.0341741694083884</v>
       </c>
       <c r="C11">
-        <v>0.004664336573301645</v>
+        <v>0.05487368763982537</v>
       </c>
       <c r="D11">
-        <v>-0.04646565399632643</v>
+        <v>-0.002466281750948534</v>
       </c>
       <c r="E11">
-        <v>0.002519999311690473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009074438873615935</v>
+      </c>
+      <c r="F11">
+        <v>-0.02218754273306716</v>
+      </c>
+      <c r="G11">
+        <v>0.07206944092936868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006046851104298051</v>
+        <v>-0.03571657803722635</v>
       </c>
       <c r="C12">
-        <v>0.006803987064565858</v>
+        <v>0.04908754445252192</v>
       </c>
       <c r="D12">
-        <v>-0.0446007180170944</v>
+        <v>-0.006243719774353913</v>
       </c>
       <c r="E12">
-        <v>-0.009217259587643115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001418593261695296</v>
+      </c>
+      <c r="F12">
+        <v>-0.001123243020519685</v>
+      </c>
+      <c r="G12">
+        <v>0.06866400366316541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02478406486141228</v>
+        <v>-0.01511985906938115</v>
       </c>
       <c r="C13">
-        <v>0.01795225014182061</v>
+        <v>0.03930196873864655</v>
       </c>
       <c r="D13">
-        <v>-0.0111426384329234</v>
+        <v>-0.02643951885113774</v>
       </c>
       <c r="E13">
-        <v>0.008370933324369877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02946058179205976</v>
+      </c>
+      <c r="F13">
+        <v>-0.00870983959494913</v>
+      </c>
+      <c r="G13">
+        <v>0.1047484081392097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009159036963341876</v>
+        <v>-0.007919784531963606</v>
       </c>
       <c r="C14">
-        <v>0.01403861836457617</v>
+        <v>0.02773101083811622</v>
       </c>
       <c r="D14">
-        <v>-0.01076400148757553</v>
+        <v>-0.009570630109011857</v>
       </c>
       <c r="E14">
-        <v>-0.007375273725215854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0001700673164625044</v>
+      </c>
+      <c r="F14">
+        <v>0.006536525822487565</v>
+      </c>
+      <c r="G14">
+        <v>0.08932862769032664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001943498336356157</v>
+        <v>-0.03297967520951677</v>
       </c>
       <c r="C16">
-        <v>0.01038204748762785</v>
+        <v>0.04860973863365246</v>
       </c>
       <c r="D16">
-        <v>-0.04836916762192534</v>
+        <v>-0.001966794212323911</v>
       </c>
       <c r="E16">
-        <v>-0.00745400403381173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007773931263543321</v>
+      </c>
+      <c r="F16">
+        <v>-0.002873554175524701</v>
+      </c>
+      <c r="G16">
+        <v>0.07547948095261459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01538940324305682</v>
+        <v>-0.02032003367974168</v>
       </c>
       <c r="C19">
-        <v>0.01786871780416454</v>
+        <v>0.05205361413857339</v>
       </c>
       <c r="D19">
-        <v>-0.02393961736582998</v>
+        <v>-0.01909421953238092</v>
       </c>
       <c r="E19">
-        <v>-0.004633722311665291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06537462338956423</v>
+      </c>
+      <c r="F19">
+        <v>-0.02449671873262648</v>
+      </c>
+      <c r="G19">
+        <v>0.1219548594456902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01159270276499006</v>
+        <v>-0.01415941106435518</v>
       </c>
       <c r="C20">
-        <v>0.006847044840304298</v>
+        <v>0.03893869578868509</v>
       </c>
       <c r="D20">
-        <v>-0.01924727704154204</v>
+        <v>-0.01430837883016893</v>
       </c>
       <c r="E20">
-        <v>0.01182479446951947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02792854885432175</v>
+      </c>
+      <c r="F20">
+        <v>0.008647724578829999</v>
+      </c>
+      <c r="G20">
+        <v>0.09669412835034095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01586086298459715</v>
+        <v>-0.01238925614435685</v>
       </c>
       <c r="C21">
-        <v>0.01764363729476725</v>
+        <v>0.03966463189403144</v>
       </c>
       <c r="D21">
-        <v>-0.02720089604498457</v>
+        <v>-0.01855096004877974</v>
       </c>
       <c r="E21">
-        <v>-0.01221136802012706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03907773030389536</v>
+      </c>
+      <c r="F21">
+        <v>-0.001635636512836054</v>
+      </c>
+      <c r="G21">
+        <v>0.1243933370143246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005892753243587604</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001881382313680192</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002469042433694625</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0007872651311863709</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002928994692749175</v>
+      </c>
+      <c r="G22">
+        <v>0.002170088850498846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005936032207343421</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001877676326481119</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002470487298909668</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0007926676471652743</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002912030929491258</v>
+      </c>
+      <c r="G23">
+        <v>0.002179330473761571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004571737043272119</v>
+        <v>-0.02769462591917778</v>
       </c>
       <c r="C24">
-        <v>-0.001286094988390868</v>
+        <v>0.05125866200249302</v>
       </c>
       <c r="D24">
-        <v>-0.04599550865662583</v>
+        <v>-0.007217667672749097</v>
       </c>
       <c r="E24">
-        <v>-0.006564566474992398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004671653993875555</v>
+      </c>
+      <c r="F24">
+        <v>-0.0147695848450819</v>
+      </c>
+      <c r="G24">
+        <v>0.07520045099500412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01292414834548914</v>
+        <v>-0.04221857646100585</v>
       </c>
       <c r="C25">
-        <v>0.01538167734127385</v>
+        <v>0.05879298307202802</v>
       </c>
       <c r="D25">
-        <v>-0.04994425511610832</v>
+        <v>-0.01123661199047684</v>
       </c>
       <c r="E25">
-        <v>-0.005416369173727305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001804495897001732</v>
+      </c>
+      <c r="F25">
+        <v>-0.008769190992328505</v>
+      </c>
+      <c r="G25">
+        <v>0.08270285661051266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02358573707889355</v>
+        <v>-0.01395370629831922</v>
       </c>
       <c r="C26">
-        <v>0.008058307476858137</v>
+        <v>0.01171213031452729</v>
       </c>
       <c r="D26">
-        <v>0.002873409170606073</v>
+        <v>-0.02378075933217536</v>
       </c>
       <c r="E26">
-        <v>-0.007244063610533842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004666317386563574</v>
+      </c>
+      <c r="F26">
+        <v>0.007760890978208238</v>
+      </c>
+      <c r="G26">
+        <v>0.07089641285612829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05201386188888876</v>
+        <v>-0.1265486089948197</v>
       </c>
       <c r="C28">
-        <v>0.2357317269366916</v>
+        <v>-0.2359369607320152</v>
       </c>
       <c r="D28">
-        <v>0.1431649363135982</v>
+        <v>0.005755350824906475</v>
       </c>
       <c r="E28">
-        <v>-0.01107848945162291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005020866741628795</v>
+      </c>
+      <c r="F28">
+        <v>0.01634931377622389</v>
+      </c>
+      <c r="G28">
+        <v>0.06437586638901303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00961214544033882</v>
+        <v>-0.009218103954835523</v>
       </c>
       <c r="C29">
-        <v>0.01802406998160365</v>
+        <v>0.02159599514100084</v>
       </c>
       <c r="D29">
-        <v>-0.008806379461630444</v>
+        <v>-0.008586674114533021</v>
       </c>
       <c r="E29">
-        <v>-0.002459341811201154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0008726259145935474</v>
+      </c>
+      <c r="F29">
+        <v>0.01446181707507614</v>
+      </c>
+      <c r="G29">
+        <v>0.08098713272285542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02448327074835812</v>
+        <v>-0.04095391607213043</v>
       </c>
       <c r="C30">
-        <v>0.001152081780721575</v>
+        <v>0.06805981998311982</v>
       </c>
       <c r="D30">
-        <v>-0.0677366374378333</v>
+        <v>-0.02912156623929428</v>
       </c>
       <c r="E30">
-        <v>0.04133027640915</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05007148551829779</v>
+      </c>
+      <c r="F30">
+        <v>-0.05101508594626149</v>
+      </c>
+      <c r="G30">
+        <v>0.09062882596194261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01141520328276106</v>
+        <v>-0.05259958348389706</v>
       </c>
       <c r="C31">
-        <v>0.04007206431538602</v>
+        <v>0.03755579863158746</v>
       </c>
       <c r="D31">
-        <v>-0.04285033575899665</v>
+        <v>-0.003565337894680745</v>
       </c>
       <c r="E31">
-        <v>-0.009450637627336892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.004009238957669259</v>
+      </c>
+      <c r="F31">
+        <v>0.0387002597208795</v>
+      </c>
+      <c r="G31">
+        <v>0.08149062448296546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004717146899827181</v>
+        <v>-0.001250084869776084</v>
       </c>
       <c r="C32">
-        <v>0.0195175123421334</v>
+        <v>0.02422109515121695</v>
       </c>
       <c r="D32">
-        <v>-0.002072776901332049</v>
+        <v>0.003695718485505433</v>
       </c>
       <c r="E32">
-        <v>-0.05380067782283179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01587577007367025</v>
+      </c>
+      <c r="F32">
+        <v>-0.04072856598694877</v>
+      </c>
+      <c r="G32">
+        <v>0.09429847269285356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01553845951509966</v>
+        <v>-0.02716781374488272</v>
       </c>
       <c r="C33">
-        <v>0.0254611750398648</v>
+        <v>0.0495115774012657</v>
       </c>
       <c r="D33">
-        <v>-0.03506970898280985</v>
+        <v>-0.0157315784759973</v>
       </c>
       <c r="E33">
-        <v>0.02709353029731629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03340225929096089</v>
+      </c>
+      <c r="F33">
+        <v>-0.01890607857764233</v>
+      </c>
+      <c r="G33">
+        <v>0.1213846683478009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003543131602918287</v>
+        <v>-0.03993570937098399</v>
       </c>
       <c r="C34">
-        <v>0.01595173520925075</v>
+        <v>0.06171546497948435</v>
       </c>
       <c r="D34">
-        <v>-0.05235363557795489</v>
+        <v>0.004680492659062591</v>
       </c>
       <c r="E34">
-        <v>-0.01315788747231072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001478272995307138</v>
+      </c>
+      <c r="F34">
+        <v>-0.02065204785664252</v>
+      </c>
+      <c r="G34">
+        <v>0.08309846011293162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01380400361771291</v>
+        <v>-0.01560465204448623</v>
       </c>
       <c r="C36">
-        <v>0.0185321019122317</v>
+        <v>0.00919019483304178</v>
       </c>
       <c r="D36">
-        <v>-0.005922483662341774</v>
+        <v>-0.01207540191762526</v>
       </c>
       <c r="E36">
-        <v>-0.004311972344916609</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002322803115489323</v>
+      </c>
+      <c r="F36">
+        <v>0.005524286980480512</v>
+      </c>
+      <c r="G36">
+        <v>0.07234968343275242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001236682000611392</v>
+        <v>-0.03214949641384966</v>
       </c>
       <c r="C38">
-        <v>0.03588056846519097</v>
+        <v>0.0315864127593282</v>
       </c>
       <c r="D38">
-        <v>-0.04497125626240697</v>
+        <v>0.007571436314835154</v>
       </c>
       <c r="E38">
-        <v>-0.007015684311219518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002427861296028374</v>
+      </c>
+      <c r="F38">
+        <v>0.01669714961683917</v>
+      </c>
+      <c r="G38">
+        <v>0.07430238501930925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003972428255982723</v>
+        <v>-0.03467320681225265</v>
       </c>
       <c r="C39">
-        <v>-0.02152832424730175</v>
+        <v>0.08092317990541757</v>
       </c>
       <c r="D39">
-        <v>-0.09188645282744622</v>
+        <v>-0.01170522565415197</v>
       </c>
       <c r="E39">
-        <v>0.005597758477811394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01900976147921282</v>
+      </c>
+      <c r="F39">
+        <v>-0.02711160060901507</v>
+      </c>
+      <c r="G39">
+        <v>0.07270519628123694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01302670810263914</v>
+        <v>-0.01539704370999302</v>
       </c>
       <c r="C40">
-        <v>0.01572468623192721</v>
+        <v>0.04307189068307593</v>
       </c>
       <c r="D40">
-        <v>-0.03267035575550612</v>
+        <v>-0.01498974609878168</v>
       </c>
       <c r="E40">
-        <v>-0.006602115482065544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02097032509511788</v>
+      </c>
+      <c r="F40">
+        <v>0.01262112385994669</v>
+      </c>
+      <c r="G40">
+        <v>0.1106637791686976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.007070156944863591</v>
+        <v>-0.01920795558636508</v>
       </c>
       <c r="C41">
-        <v>0.02040162870353553</v>
+        <v>0.0008667753112760859</v>
       </c>
       <c r="D41">
-        <v>0.009502188246765955</v>
+        <v>-0.004221482792332611</v>
       </c>
       <c r="E41">
-        <v>-0.002692953225253913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0009146636799585407</v>
+      </c>
+      <c r="F41">
+        <v>0.01167190300820178</v>
+      </c>
+      <c r="G41">
+        <v>0.0617985689195374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09120864639568586</v>
+        <v>-0.009322218973232847</v>
       </c>
       <c r="C42">
-        <v>-0.03187390346577595</v>
+        <v>0.03701795547244709</v>
       </c>
       <c r="D42">
-        <v>-0.2365528761323118</v>
+        <v>-0.09256717449365374</v>
       </c>
       <c r="E42">
-        <v>0.3915018070854708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02352290478508705</v>
+      </c>
+      <c r="F42">
+        <v>0.03823406170678559</v>
+      </c>
+      <c r="G42">
+        <v>-0.152727106591089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008733561216779862</v>
+        <v>-0.03299716290552452</v>
       </c>
       <c r="C43">
-        <v>0.02586110293764377</v>
+        <v>0.01680388999315276</v>
       </c>
       <c r="D43">
-        <v>0.006216839186642707</v>
+        <v>-0.006054851386349426</v>
       </c>
       <c r="E43">
-        <v>0.000524309862394549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01507857939197342</v>
+      </c>
+      <c r="F43">
+        <v>0.002489921628575418</v>
+      </c>
+      <c r="G43">
+        <v>0.09049300294222493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003782341272733515</v>
+        <v>-0.01210494723184489</v>
       </c>
       <c r="C44">
-        <v>0.005175794203376346</v>
+        <v>0.05828957426241947</v>
       </c>
       <c r="D44">
-        <v>-0.04293135700724867</v>
+        <v>-0.006793893616855885</v>
       </c>
       <c r="E44">
-        <v>-0.007027924313136311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01722081620830012</v>
+      </c>
+      <c r="F44">
+        <v>0.006174251763017181</v>
+      </c>
+      <c r="G44">
+        <v>0.08953285150177172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01171243419837179</v>
+        <v>-0.007896094202310333</v>
       </c>
       <c r="C46">
-        <v>0.01276830574308784</v>
+        <v>0.01733090138302091</v>
       </c>
       <c r="D46">
-        <v>-0.005953196496061584</v>
+        <v>-0.01228819727250988</v>
       </c>
       <c r="E46">
-        <v>0.003120761686821975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0005662930880726933</v>
+      </c>
+      <c r="F46">
+        <v>0.0141895186798998</v>
+      </c>
+      <c r="G46">
+        <v>0.08311525531219936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005911324277481753</v>
+        <v>-0.07699818390874331</v>
       </c>
       <c r="C47">
-        <v>0.04865142210911929</v>
+        <v>0.06674715700162394</v>
       </c>
       <c r="D47">
-        <v>-0.06975034909524246</v>
+        <v>0.005379080314640565</v>
       </c>
       <c r="E47">
-        <v>-0.008130653395158885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009169667063055258</v>
+      </c>
+      <c r="F47">
+        <v>0.0541581930942986</v>
+      </c>
+      <c r="G47">
+        <v>0.07367618393258642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005054696829423962</v>
+        <v>-0.02006275430543088</v>
       </c>
       <c r="C48">
-        <v>0.02446620776557355</v>
+        <v>0.01261885813280474</v>
       </c>
       <c r="D48">
-        <v>-0.01625476411594168</v>
+        <v>-0.001439038892781783</v>
       </c>
       <c r="E48">
-        <v>-0.002502247473435443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0006470371786607286</v>
+      </c>
+      <c r="F48">
+        <v>0.01956641636877897</v>
+      </c>
+      <c r="G48">
+        <v>0.0772387060751985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.008575673453178622</v>
+        <v>-0.0753886927024283</v>
       </c>
       <c r="C50">
-        <v>0.05344308353569269</v>
+        <v>0.06983894957439596</v>
       </c>
       <c r="D50">
-        <v>-0.0708450350992203</v>
+        <v>0.002824657444005609</v>
       </c>
       <c r="E50">
-        <v>-0.03240736670682595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008629450927633514</v>
+      </c>
+      <c r="F50">
+        <v>0.05625676896792774</v>
+      </c>
+      <c r="G50">
+        <v>0.09127730751962823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007916532508448619</v>
+        <v>-0.01351841294277336</v>
       </c>
       <c r="C51">
-        <v>0.01351208385368792</v>
+        <v>0.03527744521696331</v>
       </c>
       <c r="D51">
-        <v>-0.002003591115099975</v>
+        <v>-0.01027549930790562</v>
       </c>
       <c r="E51">
-        <v>-0.005040467960140236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01643464637507803</v>
+      </c>
+      <c r="F51">
+        <v>-0.02630415544132195</v>
+      </c>
+      <c r="G51">
+        <v>0.1089594886026032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.009938135696062748</v>
+        <v>-0.08159136042254439</v>
       </c>
       <c r="C53">
-        <v>0.06149692562311432</v>
+        <v>0.08465396637461366</v>
       </c>
       <c r="D53">
-        <v>-0.1275900326112749</v>
+        <v>0.004208483732299591</v>
       </c>
       <c r="E53">
-        <v>-0.01836733754826321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02800204045613781</v>
+      </c>
+      <c r="F53">
+        <v>0.06566194259718591</v>
+      </c>
+      <c r="G53">
+        <v>0.07319658821640977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002788023675158526</v>
+        <v>-0.02911506527340951</v>
       </c>
       <c r="C54">
-        <v>0.03326320688782278</v>
+        <v>0.0160200717284377</v>
       </c>
       <c r="D54">
-        <v>0.008692278199875503</v>
+        <v>0.001304073516828527</v>
       </c>
       <c r="E54">
-        <v>0.00227596205830391</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01084229377566638</v>
+      </c>
+      <c r="F54">
+        <v>-0.002470637985627478</v>
+      </c>
+      <c r="G54">
+        <v>0.08537583579975427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005160482888765472</v>
+        <v>-0.07072526190508698</v>
       </c>
       <c r="C55">
-        <v>0.03851793237473507</v>
+        <v>0.06875169836707552</v>
       </c>
       <c r="D55">
-        <v>-0.1030996755660353</v>
+        <v>0.005427074433545918</v>
       </c>
       <c r="E55">
-        <v>-0.0007098232626697655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02401804295954723</v>
+      </c>
+      <c r="F55">
+        <v>0.06174518668264495</v>
+      </c>
+      <c r="G55">
+        <v>0.04599854795837817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.009828210430468056</v>
+        <v>-0.1376196841969481</v>
       </c>
       <c r="C56">
-        <v>0.08564449189527343</v>
+        <v>0.108246633429487</v>
       </c>
       <c r="D56">
-        <v>-0.1628363472976658</v>
+        <v>0.01293373211722144</v>
       </c>
       <c r="E56">
-        <v>-0.009696761698092604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03245564947389037</v>
+      </c>
+      <c r="F56">
+        <v>0.08015104002787642</v>
+      </c>
+      <c r="G56">
+        <v>0.0230858081913675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02438037133352371</v>
+        <v>-0.006818619205909761</v>
       </c>
       <c r="C57">
-        <v>0.008270849212487474</v>
+        <v>0.009342687972135175</v>
       </c>
       <c r="D57">
-        <v>-0.04753882097983072</v>
+        <v>-0.02363182784878998</v>
       </c>
       <c r="E57">
-        <v>0.005210520306054142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0243020498024664</v>
+      </c>
+      <c r="F57">
+        <v>-0.008825505987228022</v>
+      </c>
+      <c r="G57">
+        <v>0.02914191448719331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01792088762202525</v>
+        <v>-0.05713213985167197</v>
       </c>
       <c r="C58">
-        <v>0.0725544810683284</v>
+        <v>0.05386356983759766</v>
       </c>
       <c r="D58">
-        <v>-0.1393960258154592</v>
+        <v>-0.03045013315148715</v>
       </c>
       <c r="E58">
-        <v>0.5226871815233796</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9355560814427053</v>
+      </c>
+      <c r="F58">
+        <v>0.2385907686313882</v>
+      </c>
+      <c r="G58">
+        <v>-0.1181897185063906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05266338456923531</v>
+        <v>-0.1604383628069796</v>
       </c>
       <c r="C59">
-        <v>0.2631401865069691</v>
+        <v>-0.2036042118501837</v>
       </c>
       <c r="D59">
-        <v>0.1367839933014548</v>
+        <v>0.01085043185469476</v>
       </c>
       <c r="E59">
-        <v>-0.0068474415313658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0186677062783521</v>
+      </c>
+      <c r="F59">
+        <v>-0.005348466123958766</v>
+      </c>
+      <c r="G59">
+        <v>0.04146975770359767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04883541423358671</v>
+        <v>-0.286218554223306</v>
       </c>
       <c r="C60">
-        <v>0.1639795144747097</v>
+        <v>0.1070353280997805</v>
       </c>
       <c r="D60">
-        <v>-0.09526808100846296</v>
+        <v>-0.01347048455162909</v>
       </c>
       <c r="E60">
-        <v>-0.01705757844989947</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.003398905343409208</v>
+      </c>
+      <c r="F60">
+        <v>-0.3491223728838791</v>
+      </c>
+      <c r="G60">
+        <v>-0.1283769022038812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003693311654164943</v>
+        <v>-0.03697147313324673</v>
       </c>
       <c r="C61">
-        <v>0.006474227024398832</v>
+        <v>0.06741672690415186</v>
       </c>
       <c r="D61">
-        <v>-0.06653458843479169</v>
+        <v>-0.00520388536190039</v>
       </c>
       <c r="E61">
-        <v>-0.006749176796361457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01209378238586313</v>
+      </c>
+      <c r="F61">
+        <v>-0.01512092818064111</v>
+      </c>
+      <c r="G61">
+        <v>0.07439030489320003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00830053391654267</v>
+        <v>-0.01396565302697761</v>
       </c>
       <c r="C63">
-        <v>0.005990732594004598</v>
+        <v>0.02946459777171133</v>
       </c>
       <c r="D63">
-        <v>-0.01978185592690371</v>
+        <v>-0.008318933381594833</v>
       </c>
       <c r="E63">
-        <v>-0.01158830732667764</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0004429269783102125</v>
+      </c>
+      <c r="F63">
+        <v>0.01537533099790967</v>
+      </c>
+      <c r="G63">
+        <v>0.07717573561686898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0104620225859677</v>
+        <v>-0.04735597457509744</v>
       </c>
       <c r="C64">
-        <v>0.02943636780359724</v>
+        <v>0.04702451694501623</v>
       </c>
       <c r="D64">
-        <v>-0.05904253523072788</v>
+        <v>-0.00637418701034971</v>
       </c>
       <c r="E64">
-        <v>0.005616424000405689</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001289710238800124</v>
+      </c>
+      <c r="F64">
+        <v>-0.005841634553321832</v>
+      </c>
+      <c r="G64">
+        <v>0.07564809064912381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0173729782417807</v>
+        <v>-0.07585273420770057</v>
       </c>
       <c r="C65">
-        <v>0.003687650113238855</v>
+        <v>0.06053778375506635</v>
       </c>
       <c r="D65">
-        <v>-0.09683045371740327</v>
+        <v>-0.0163760538003055</v>
       </c>
       <c r="E65">
-        <v>-0.01770639203035485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02720529624665685</v>
+      </c>
+      <c r="F65">
+        <v>-0.03005655701307772</v>
+      </c>
+      <c r="G65">
+        <v>0.02705342783296232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004289734320117413</v>
+        <v>-0.05062870376703919</v>
       </c>
       <c r="C66">
-        <v>-0.01562963668558256</v>
+        <v>0.1106587556171231</v>
       </c>
       <c r="D66">
-        <v>-0.1206394015445506</v>
+        <v>-0.0117315103145779</v>
       </c>
       <c r="E66">
-        <v>0.0007387940731282557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02777275882488771</v>
+      </c>
+      <c r="F66">
+        <v>-0.03697632757338136</v>
+      </c>
+      <c r="G66">
+        <v>0.08754783029662284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005964426158191765</v>
+        <v>-0.05503847003913149</v>
       </c>
       <c r="C67">
-        <v>0.05640699960298071</v>
+        <v>0.03545141222912779</v>
       </c>
       <c r="D67">
-        <v>-0.0552748549506706</v>
+        <v>0.005983875672015733</v>
       </c>
       <c r="E67">
-        <v>-0.009533996362729388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004374929465665955</v>
+      </c>
+      <c r="F67">
+        <v>0.01732650593810276</v>
+      </c>
+      <c r="G67">
+        <v>0.06685564647043737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06617619510455257</v>
+        <v>-0.1537467959922046</v>
       </c>
       <c r="C68">
-        <v>0.2313950594524422</v>
+        <v>-0.2686880102529623</v>
       </c>
       <c r="D68">
-        <v>0.1611887042890384</v>
+        <v>-0.006463406146089813</v>
       </c>
       <c r="E68">
-        <v>0.02166054921177574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01193939436504751</v>
+      </c>
+      <c r="F68">
+        <v>0.03177277507670018</v>
+      </c>
+      <c r="G68">
+        <v>0.02922649823459215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0009770312122828492</v>
+        <v>-0.08082526570491599</v>
       </c>
       <c r="C69">
-        <v>0.04113147070401979</v>
+        <v>0.0700555548209552</v>
       </c>
       <c r="D69">
-        <v>-0.07284265562825328</v>
+        <v>0.009500050311999748</v>
       </c>
       <c r="E69">
-        <v>-0.01633211893900618</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02575912394650227</v>
+      </c>
+      <c r="F69">
+        <v>0.03691434119835661</v>
+      </c>
+      <c r="G69">
+        <v>0.07896645287071632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05032096684600202</v>
+        <v>-0.1399199179737469</v>
       </c>
       <c r="C71">
-        <v>0.2041745979708689</v>
+        <v>-0.2281065873137228</v>
       </c>
       <c r="D71">
-        <v>0.1196127384280227</v>
+        <v>0.002110722961852581</v>
       </c>
       <c r="E71">
-        <v>0.01166017495628868</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03157939349592703</v>
+      </c>
+      <c r="F71">
+        <v>0.01811061793361584</v>
+      </c>
+      <c r="G71">
+        <v>0.06321006957423972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-9.819084635576398e-05</v>
+        <v>-0.08485739678067333</v>
       </c>
       <c r="C72">
-        <v>0.03546847860876855</v>
+        <v>0.07412490475355353</v>
       </c>
       <c r="D72">
-        <v>-0.1194840017490652</v>
+        <v>0.008084190150120598</v>
       </c>
       <c r="E72">
-        <v>-0.01259578280924884</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.004082579269197657</v>
+      </c>
+      <c r="F72">
+        <v>-0.04247668899640174</v>
+      </c>
+      <c r="G72">
+        <v>0.06469195791276199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06109985625686876</v>
+        <v>-0.3739385138011917</v>
       </c>
       <c r="C73">
-        <v>0.176620119532321</v>
+        <v>0.118807178894205</v>
       </c>
       <c r="D73">
-        <v>-0.1916221068787529</v>
+        <v>-0.02271451041899433</v>
       </c>
       <c r="E73">
-        <v>0.009376152489567774</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07086619798910877</v>
+      </c>
+      <c r="F73">
+        <v>-0.5740278785331773</v>
+      </c>
+      <c r="G73">
+        <v>-0.2458488202719131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006203574393427442</v>
+        <v>-0.104901038174845</v>
       </c>
       <c r="C74">
-        <v>0.06957615109849126</v>
+        <v>0.1101752715650601</v>
       </c>
       <c r="D74">
-        <v>-0.1704884693995532</v>
+        <v>0.009933679098562518</v>
       </c>
       <c r="E74">
-        <v>-0.0003125364368713942</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01168196952915619</v>
+      </c>
+      <c r="F74">
+        <v>0.06923630159390984</v>
+      </c>
+      <c r="G74">
+        <v>0.06623359162962658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.017582782138964</v>
+        <v>-0.2488803061361209</v>
       </c>
       <c r="C75">
-        <v>0.1643840773872174</v>
+        <v>0.1505997598257721</v>
       </c>
       <c r="D75">
-        <v>-0.2985104351893128</v>
+        <v>0.03149390851460455</v>
       </c>
       <c r="E75">
-        <v>0.007425174053210919</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05825322827384043</v>
+      </c>
+      <c r="F75">
+        <v>0.175373843507164</v>
+      </c>
+      <c r="G75">
+        <v>-0.05519111601926648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005456786341584389</v>
+        <v>-0.1221054567834626</v>
       </c>
       <c r="C76">
-        <v>0.1104106934272916</v>
+        <v>0.1128981055153454</v>
       </c>
       <c r="D76">
-        <v>-0.2288646983041834</v>
+        <v>0.02051540493541926</v>
       </c>
       <c r="E76">
-        <v>-0.03909353057396352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03965388510297206</v>
+      </c>
+      <c r="F76">
+        <v>0.1164962715103714</v>
+      </c>
+      <c r="G76">
+        <v>0.04320279596796851</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01674535894599583</v>
+        <v>-0.06847782683968909</v>
       </c>
       <c r="C77">
-        <v>0.03080553438219083</v>
+        <v>0.06176016776402757</v>
       </c>
       <c r="D77">
-        <v>-0.04731502290887225</v>
+        <v>-0.01205439062076693</v>
       </c>
       <c r="E77">
-        <v>0.004306910631613137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04458485557078647</v>
+      </c>
+      <c r="F77">
+        <v>-0.008891008453800366</v>
+      </c>
+      <c r="G77">
+        <v>0.06100893810928532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00636755632298627</v>
+        <v>-0.04227980468891782</v>
       </c>
       <c r="C78">
-        <v>0.01679789349768392</v>
+        <v>0.05198423235771998</v>
       </c>
       <c r="D78">
-        <v>-0.04317992883943104</v>
+        <v>-0.0055716228501765</v>
       </c>
       <c r="E78">
-        <v>-0.001467320124139482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02036241276257404</v>
+      </c>
+      <c r="F78">
+        <v>-0.03667051644339447</v>
+      </c>
+      <c r="G78">
+        <v>0.07861032920742794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01773219814261026</v>
+        <v>-0.05254838227236432</v>
       </c>
       <c r="C80">
-        <v>0.07169241475414444</v>
+        <v>0.07323533420965858</v>
       </c>
       <c r="D80">
-        <v>-0.1972587017443495</v>
+        <v>-0.01015298995502782</v>
       </c>
       <c r="E80">
-        <v>-0.7290964934297783</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03426232915754396</v>
+      </c>
+      <c r="F80">
+        <v>-0.008911940577684473</v>
+      </c>
+      <c r="G80">
+        <v>0.5329326582740574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01187250190041467</v>
+        <v>-0.1402821049982129</v>
       </c>
       <c r="C81">
-        <v>0.1003674686635722</v>
+        <v>0.09665211043280918</v>
       </c>
       <c r="D81">
-        <v>-0.1675407219104264</v>
+        <v>0.01584229287648628</v>
       </c>
       <c r="E81">
-        <v>-0.01923632064140231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03495677783584194</v>
+      </c>
+      <c r="F81">
+        <v>0.1338627656029092</v>
+      </c>
+      <c r="G81">
+        <v>0.02208724711910249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1247356598553658</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07204693723857121</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008439739957167056</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08842387137815773</v>
+      </c>
+      <c r="F82">
+        <v>0.03495074598295513</v>
+      </c>
+      <c r="G82">
+        <v>0.0349811153143537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00891773008344819</v>
+        <v>-0.03647745782111402</v>
       </c>
       <c r="C83">
-        <v>0.02467271352775375</v>
+        <v>0.0291128300573363</v>
       </c>
       <c r="D83">
-        <v>-0.02689667483491692</v>
+        <v>-0.0059865051143742</v>
       </c>
       <c r="E83">
-        <v>0.004958208599320908</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02829912539708931</v>
+      </c>
+      <c r="F83">
+        <v>-0.03330935741529543</v>
+      </c>
+      <c r="G83">
+        <v>0.05751358084606897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02339543333363818</v>
+        <v>-0.2158545436762979</v>
       </c>
       <c r="C85">
-        <v>0.132320251836918</v>
+        <v>0.1461036649148568</v>
       </c>
       <c r="D85">
-        <v>-0.2742082113613735</v>
+        <v>0.01979814099878512</v>
       </c>
       <c r="E85">
-        <v>-0.004824553383114491</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1004410634869</v>
+      </c>
+      <c r="F85">
+        <v>0.1399513466745301</v>
+      </c>
+      <c r="G85">
+        <v>-0.11338737192963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01003206183286665</v>
+        <v>-0.01344414688096046</v>
       </c>
       <c r="C86">
-        <v>0.02649015133643446</v>
+        <v>0.02827060432152209</v>
       </c>
       <c r="D86">
-        <v>-0.01026222988692584</v>
+        <v>-0.01265497582207541</v>
       </c>
       <c r="E86">
-        <v>0.03561762060250151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04516435078529163</v>
+      </c>
+      <c r="F86">
+        <v>-0.03323460370198765</v>
+      </c>
+      <c r="G86">
+        <v>0.1675293112900904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008337367266538219</v>
+        <v>-0.02266678114400123</v>
       </c>
       <c r="C87">
-        <v>0.00298234353258883</v>
+        <v>0.02309073555444024</v>
       </c>
       <c r="D87">
-        <v>-0.04110983641940003</v>
+        <v>-0.01238306979665493</v>
       </c>
       <c r="E87">
-        <v>0.007246359380862366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08275874254896121</v>
+      </c>
+      <c r="F87">
+        <v>-0.01921829577821665</v>
+      </c>
+      <c r="G87">
+        <v>0.1068331323056482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0289179428330212</v>
+        <v>-0.09133852908005705</v>
       </c>
       <c r="C88">
-        <v>0.0299103518869933</v>
+        <v>0.06596799079431892</v>
       </c>
       <c r="D88">
-        <v>-0.03609178837230979</v>
+        <v>-0.02257623159332408</v>
       </c>
       <c r="E88">
-        <v>-0.00379130527850361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008042281461501538</v>
+      </c>
+      <c r="F88">
+        <v>0.01832880999825473</v>
+      </c>
+      <c r="G88">
+        <v>0.07164859779476493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09702928881910167</v>
+        <v>-0.2339394143138239</v>
       </c>
       <c r="C89">
-        <v>0.3857339770380882</v>
+        <v>-0.3682804154512211</v>
       </c>
       <c r="D89">
-        <v>0.2226987552540252</v>
+        <v>-0.0002580296407924131</v>
       </c>
       <c r="E89">
-        <v>-0.02470263284937831</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01493255201831408</v>
+      </c>
+      <c r="F89">
+        <v>0.02920790347544864</v>
+      </c>
+      <c r="G89">
+        <v>0.06549171360144375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07419587267725061</v>
+        <v>-0.207484706459402</v>
       </c>
       <c r="C90">
-        <v>0.3008295801140868</v>
+        <v>-0.3194787311659388</v>
       </c>
       <c r="D90">
-        <v>0.201735904485379</v>
+        <v>0.004349904991825311</v>
       </c>
       <c r="E90">
-        <v>0.01599943838647737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004809276707235435</v>
+      </c>
+      <c r="F90">
+        <v>0.05099866454537089</v>
+      </c>
+      <c r="G90">
+        <v>0.02549793420507683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0135180328084161</v>
+        <v>-0.1885207969821703</v>
       </c>
       <c r="C91">
-        <v>0.1430426047806834</v>
+        <v>0.1395531554192101</v>
       </c>
       <c r="D91">
-        <v>-0.2262198678239189</v>
+        <v>0.02409870379798121</v>
       </c>
       <c r="E91">
-        <v>-0.02446749306252172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06870786232729199</v>
+      </c>
+      <c r="F91">
+        <v>0.150273175699372</v>
+      </c>
+      <c r="G91">
+        <v>0.01300826108261802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04265686107245326</v>
+        <v>-0.2014261120851846</v>
       </c>
       <c r="C92">
-        <v>0.3168916096858208</v>
+        <v>-0.2563806554104215</v>
       </c>
       <c r="D92">
-        <v>0.08249065287257532</v>
+        <v>0.03830407534024623</v>
       </c>
       <c r="E92">
-        <v>0.03224698381591243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03106192730859825</v>
+      </c>
+      <c r="F92">
+        <v>0.05996980409791281</v>
+      </c>
+      <c r="G92">
+        <v>0.1267607052896259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07272559498948314</v>
+        <v>-0.2316422809065952</v>
       </c>
       <c r="C93">
-        <v>0.3215325366668617</v>
+        <v>-0.3163007175084371</v>
       </c>
       <c r="D93">
-        <v>0.1795891054221915</v>
+        <v>0.01088874800839451</v>
       </c>
       <c r="E93">
-        <v>0.04074559256926654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008113604832760813</v>
+      </c>
+      <c r="F93">
+        <v>0.03294509522817342</v>
+      </c>
+      <c r="G93">
+        <v>0.02641803768359618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03823080642200564</v>
+        <v>-0.3178851536682817</v>
       </c>
       <c r="C94">
-        <v>0.1656737392317774</v>
+        <v>0.1765254342450524</v>
       </c>
       <c r="D94">
-        <v>-0.2487646903729171</v>
+        <v>0.01890546708190532</v>
       </c>
       <c r="E94">
-        <v>0.01583374930842179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1674722472146267</v>
+      </c>
+      <c r="F94">
+        <v>0.4745095190510595</v>
+      </c>
+      <c r="G94">
+        <v>-0.3298856456175905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003614917894764136</v>
+        <v>-0.09883919155791364</v>
       </c>
       <c r="C95">
-        <v>0.03353455510724801</v>
+        <v>0.08621601941607962</v>
       </c>
       <c r="D95">
-        <v>-0.09351914885563996</v>
+        <v>0.009980172659359299</v>
       </c>
       <c r="E95">
-        <v>0.1279861146000568</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0649726482822186</v>
+      </c>
+      <c r="F95">
+        <v>-0.1995904021842091</v>
+      </c>
+      <c r="G95">
+        <v>-0.07598584001839155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02206285942542687</v>
+        <v>-0.1975840922282815</v>
       </c>
       <c r="C98">
-        <v>0.1631778266036641</v>
+        <v>0.04750484907569494</v>
       </c>
       <c r="D98">
-        <v>-0.1384210992161419</v>
+        <v>0.01167550472526096</v>
       </c>
       <c r="E98">
-        <v>0.03561532270309736</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07120090568897475</v>
+      </c>
+      <c r="F98">
+        <v>-0.2403560056695274</v>
+      </c>
+      <c r="G98">
+        <v>-0.009571864763372427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009381055391452361</v>
+        <v>-0.009060004229511261</v>
       </c>
       <c r="C101">
-        <v>0.01772012111308399</v>
+        <v>0.02154727057812678</v>
       </c>
       <c r="D101">
-        <v>-0.008480770133749161</v>
+        <v>-0.008402842962682623</v>
       </c>
       <c r="E101">
-        <v>-0.002853198893744118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001170558517279376</v>
+      </c>
+      <c r="F101">
+        <v>0.01545190713480487</v>
+      </c>
+      <c r="G101">
+        <v>0.08035978375251053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02061157907043568</v>
+        <v>-0.1176108168520953</v>
       </c>
       <c r="C102">
-        <v>0.07071820184444978</v>
+        <v>0.08488650327709249</v>
       </c>
       <c r="D102">
-        <v>-0.1304809429414235</v>
+        <v>-0.0004114049534282787</v>
       </c>
       <c r="E102">
-        <v>-0.004733975843911585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03442465556691505</v>
+      </c>
+      <c r="F102">
+        <v>0.04173677224754131</v>
+      </c>
+      <c r="G102">
+        <v>-0.0006313430528163213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002007385076023372</v>
+        <v>-0.00326145666433804</v>
       </c>
       <c r="C103">
-        <v>0.0110871657323314</v>
+        <v>0.002689608287080783</v>
       </c>
       <c r="D103">
-        <v>-0.01962589321325754</v>
+        <v>7.513177151002048e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01506622461678552</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0008734374017780845</v>
+      </c>
+      <c r="F103">
+        <v>0.007487784233051546</v>
+      </c>
+      <c r="G103">
+        <v>0.01572683446196803</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9680053813334272</v>
+        <v>-0.02085933434713869</v>
       </c>
       <c r="C104">
-        <v>-0.2104540243286819</v>
+        <v>-0.02902702653856124</v>
       </c>
       <c r="D104">
-        <v>0.01592399050446192</v>
+        <v>-0.9871339481068379</v>
       </c>
       <c r="E104">
-        <v>-0.03747581167340758</v>
+        <v>0.0552072633410046</v>
+      </c>
+      <c r="F104">
+        <v>0.03940715193839674</v>
+      </c>
+      <c r="G104">
+        <v>-0.02702134145780077</v>
       </c>
     </row>
   </sheetData>
